--- a/data/6_tables/tables_appendix/Table9_CE_Table_DWL_193.xlsx
+++ b/data/6_tables/tables_appendix/Table9_CE_Table_DWL_193.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acreeron\Dropbox (MIT)\Regulation\Paper\Figures July 1\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethuo\Documents\GitHub\mvpf-climate\data\6_tables\tables_appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBAE2C-1E42-430F-B5F6-DC114090EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3A2D22-9C97-4F63-9DDA-9D230EF88DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675"/>
+    <workbookView xWindow="6697" yWindow="-16297" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="4" r:id="rId1"/>
     <sheet name="data_export" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>MVPF</t>
   </si>
@@ -88,21 +88,6 @@
     <t>Opower Elec. (166 RCTs)</t>
   </si>
   <si>
-    <t>Net Social Cost Per Ton</t>
-  </si>
-  <si>
-    <t>10% DWL</t>
-  </si>
-  <si>
-    <t>30% DWL</t>
-  </si>
-  <si>
-    <t>50% DWL</t>
-  </si>
-  <si>
-    <t>0% DWL</t>
-  </si>
-  <si>
     <t>DWL_0_table</t>
   </si>
   <si>
@@ -113,16 +98,39 @@
   </si>
   <si>
     <t>DWL_50_table</t>
+  </si>
+  <si>
+    <r>
+      <t>Welfare Cost of Raising Revenue (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="LM Roman 10"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="LM Roman 10"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +201,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,7 +209,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -210,7 +218,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -220,7 +228,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,126 +236,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,7 +379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,7 +496,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -509,9 +520,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -535,7 +546,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -570,7 +581,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -588,7 +599,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -613,7 +624,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -629,68 +640,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BF7382-BA68-4FFF-972D-6F46E493258F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BF7382-BA68-4FFF-972D-6F46E493258F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="F1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="9.1328125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.1328125" style="5"/>
-    <col min="5" max="5" width="9.1328125" style="5" customWidth="true"/>
-    <col min="6" max="7" width="1.46484375" style="5" customWidth="true"/>
-    <col min="8" max="8" width="60.265625" style="5" customWidth="true"/>
-    <col min="9" max="10" width="28.796875" style="18" customWidth="true"/>
-    <col min="11" max="13" width="28.796875" style="13" customWidth="true"/>
-    <col min="14" max="15" width="1.46484375" style="5" customWidth="true"/>
-    <col min="16" max="16384" width="9.1328125" style="5"/>
+    <col min="1" max="4" width="9.109375" style="5"/>
+    <col min="5" max="5" width="9.109375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="1.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="61.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" style="18" customWidth="1"/>
+    <col min="11" max="13" width="28.77734375" style="13" customWidth="1"/>
+    <col min="14" max="15" width="1.44140625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="1" customFormat="true" x14ac:dyDescent="0.45">
+    <row r="1" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="1" customFormat="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="1" customFormat="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="1" customFormat="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="1" customFormat="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="1" customFormat="true" ht="19.15" thickBot="true" x14ac:dyDescent="0.5">
+    <row r="6" spans="6:31" s="1" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="1" customFormat="true" ht="10.25" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="6:31" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -702,61 +717,61 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="22" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
+    <row r="8" spans="6:31" s="21" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="J8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="22" customFormat="true" ht="29.45" customHeight="true" thickBot="true" x14ac:dyDescent="0.5">
-      <c r="F9" s="23" t="s">
+    <row r="9" spans="6:31" s="21" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="8" customFormat="true" ht="10.25" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
+      <c r="J9" s="41">
+        <v>1</v>
+      </c>
+      <c r="K9" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="M9" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+    </row>
+    <row r="10" spans="6:31" s="8" customFormat="1" ht="10.199999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -768,310 +783,310 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="32" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
-      <c r="F11" s="27"/>
-      <c r="G11" s="28" t="s">
+    <row r="11" spans="6:31" s="31" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="F12" s="27"/>
-      <c r="H12" s="33" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F12" s="26"/>
+      <c r="H12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <f>data_export!B2</f>
-        <v>6.2399425506591797</v>
-      </c>
-      <c r="J12" s="35">
+        <v>5.8698348999023438</v>
+      </c>
+      <c r="J12" s="34">
         <f>data_export!C2</f>
-        <v>-34.183383941650391</v>
-      </c>
-      <c r="K12" s="35">
+        <v>-32.326091766357422</v>
+      </c>
+      <c r="K12" s="34">
         <f>data_export!D2</f>
-        <v>-25.279609680175781</v>
-      </c>
-      <c r="L12" s="35">
+        <v>-23.589645385742188</v>
+      </c>
+      <c r="L12" s="34">
         <f>data_export!E2</f>
-        <v>-19.016796112060547</v>
-      </c>
-      <c r="M12" s="35">
+        <v>-14.663016319274902</v>
+      </c>
+      <c r="M12" s="34">
         <f>data_export!F2</f>
-        <v>-12.753981590270996</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="F13" s="27"/>
-      <c r="H13" s="33" t="s">
+        <v>-5.7363877296447754</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F13" s="26"/>
+      <c r="H13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f>data_export!B3</f>
-        <v>3.86165452003479</v>
-      </c>
-      <c r="J13" s="35">
+        <v>3.8616542816162109</v>
+      </c>
+      <c r="J13" s="34">
         <f>data_export!C3</f>
         <v>-66.884750366210938</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <f>data_export!D3</f>
-        <v>-46.815547943115234</v>
-      </c>
-      <c r="L13" s="35">
+        <v>-48.012187957763672</v>
+      </c>
+      <c r="L13" s="34">
         <f>data_export!E3</f>
-        <v>-34.90020751953125</v>
-      </c>
-      <c r="M13" s="35">
+        <v>-30.82573127746582</v>
+      </c>
+      <c r="M13" s="34">
         <f>data_export!F3</f>
-        <v>-22.984867095947266</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="F14" s="27"/>
-      <c r="H14" s="33" t="s">
+        <v>-13.639273643493652</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F14" s="26"/>
+      <c r="H14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <f>data_export!B4</f>
-        <v>1.4507421255111694</v>
-      </c>
-      <c r="J14" s="35">
+        <v>1.445249080657959</v>
+      </c>
+      <c r="J14" s="34">
         <f>data_export!C4</f>
-        <v>-411.47763061523438</v>
-      </c>
-      <c r="K14" s="35">
+        <v>-414.67373657226563</v>
+      </c>
+      <c r="K14" s="34">
         <f>data_export!D4</f>
-        <v>-271.47824096679688</v>
-      </c>
-      <c r="L14" s="35">
+        <v>-259.21841430664063</v>
+      </c>
+      <c r="L14" s="34">
         <f>data_export!E4</f>
-        <v>-74.567390441894531</v>
-      </c>
-      <c r="M14" s="35">
+        <v>0.60649693012237549</v>
+      </c>
+      <c r="M14" s="34">
         <f>data_export!F4</f>
-        <v>122.34345245361328</v>
-      </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="F15" s="27"/>
-      <c r="H15" s="33" t="s">
+        <v>260.431396484375</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F15" s="26"/>
+      <c r="H15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <f>data_export!B5</f>
-        <v>1.1749320030212402</v>
-      </c>
-      <c r="J15" s="35">
+        <v>1.1642497777938843</v>
+      </c>
+      <c r="J15" s="34">
         <f>data_export!C5</f>
-        <v>107.07133483886719</v>
-      </c>
-      <c r="K15" s="35">
+        <v>111.38442230224609</v>
+      </c>
+      <c r="K15" s="34">
         <f>data_export!D5</f>
-        <v>57.053604125976563</v>
-      </c>
-      <c r="L15" s="35">
+        <v>158.82356262207031</v>
+      </c>
+      <c r="L15" s="34">
         <f>data_export!E5</f>
-        <v>143.74446105957031</v>
-      </c>
-      <c r="M15" s="35">
+        <v>253.70185852050781</v>
+      </c>
+      <c r="M15" s="34">
         <f>data_export!F5</f>
-        <v>230.43533325195313</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="F16" s="27"/>
-      <c r="H16" s="33" t="s">
+        <v>348.58013916015625</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F16" s="26"/>
+      <c r="H16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <f>data_export!B6</f>
-        <v>1.056435227394104</v>
-      </c>
-      <c r="J16" s="35">
+        <v>1.0474462509155273</v>
+      </c>
+      <c r="J16" s="34">
         <f>data_export!C6</f>
-        <v>82.143035888671875</v>
-      </c>
-      <c r="K16" s="35">
+        <v>147.72091674804688</v>
+      </c>
+      <c r="K16" s="34">
         <f>data_export!D6</f>
-        <v>97.191024780273438</v>
-      </c>
-      <c r="L16" s="35">
+        <v>235.36155700683594</v>
+      </c>
+      <c r="L16" s="34">
         <f>data_export!E6</f>
-        <v>191.82199096679688</v>
-      </c>
-      <c r="M16" s="35">
+        <v>410.642822265625</v>
+      </c>
+      <c r="M16" s="34">
         <f>data_export!F6</f>
-        <v>286.45297241210938</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="H17" s="33" t="s">
+        <v>585.924072265625</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f>data_export!B7</f>
-        <v>1.0128928422927856</v>
-      </c>
-      <c r="J17" s="35">
+        <v>1.0123741626739502</v>
+      </c>
+      <c r="J17" s="34">
         <f>data_export!C7</f>
-        <v>-37.772529602050781</v>
-      </c>
-      <c r="K17" s="35">
+        <v>-38.354965209960938</v>
+      </c>
+      <c r="K17" s="34">
         <f>data_export!D7</f>
-        <v>222.68040466308594</v>
-      </c>
-      <c r="L17" s="35">
+        <v>555.3824462890625</v>
+      </c>
+      <c r="L17" s="34">
         <f>data_export!E7</f>
-        <v>749.6441650390625</v>
-      </c>
-      <c r="M17" s="35">
+        <v>1748.530517578125</v>
+      </c>
+      <c r="M17" s="34">
         <f>data_export!F7</f>
-        <v>1276.60791015625</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="H18" s="33" t="s">
+        <v>2941.6787109375</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <f>data_export!B8</f>
-        <v>0.98700541257858276</v>
-      </c>
-      <c r="J18" s="35">
+        <v>0.97763127088546753</v>
+      </c>
+      <c r="J18" s="34">
         <f>data_export!C8</f>
-        <v>198.46125793457031</v>
-      </c>
-      <c r="K18" s="35">
+        <v>206.73704528808594</v>
+      </c>
+      <c r="K18" s="34">
         <f>data_export!D8</f>
-        <v>144.64460754394531</v>
-      </c>
-      <c r="L18" s="35">
+        <v>284.67605590820313</v>
+      </c>
+      <c r="L18" s="34">
         <f>data_export!E8</f>
-        <v>225.73226928710938</v>
-      </c>
-      <c r="M18" s="35">
+        <v>440.55404663085938</v>
+      </c>
+      <c r="M18" s="34">
         <f>data_export!F8</f>
-        <v>306.81991577148438</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" s="22" customFormat="true" ht="10.25" customHeight="true" x14ac:dyDescent="0.45">
+        <v>596.43206787109375</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" s="21" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I19" s="20"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" s="32" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
-      <c r="F20" s="27"/>
-      <c r="G20" s="28" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="6:15" s="31" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="26"/>
+      <c r="G20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="H21" s="33" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <f>data_export!B9</f>
         <v>2.547694206237793</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <f>data_export!C9</f>
         <v>70.288436889648438</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <f>data_export!D9</f>
         <v>77.978240966796875</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="34">
         <f>data_export!E9</f>
         <v>93.35784912109375</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="34">
         <f>data_export!F9</f>
         <v>108.73745727539063</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" s="22" customFormat="true" ht="10.25" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:15" s="21" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I22" s="20"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" s="32" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
-      <c r="F23" s="27"/>
-      <c r="G23" s="28" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="6:15" s="31" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="27"/>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
-      <c r="H24" s="33" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <f>data_export!B10</f>
-        <v>0.66175150871276855</v>
-      </c>
-      <c r="J24" s="35">
+        <v>0.6714891791343689</v>
+      </c>
+      <c r="J24" s="34">
         <f>data_export!C10</f>
-        <v>-64.070701599121094</v>
-      </c>
-      <c r="K24" s="35">
+        <v>-63.599552154541016</v>
+      </c>
+      <c r="K24" s="34">
         <f>data_export!D10</f>
-        <v>-108.24491882324219</v>
-      </c>
-      <c r="L24" s="35">
+        <v>-140.49539184570313</v>
+      </c>
+      <c r="L24" s="34">
         <f>data_export!E10</f>
-        <v>-197.89842224121094</v>
-      </c>
-      <c r="M24" s="35">
+        <v>-294.42312622070313</v>
+      </c>
+      <c r="M24" s="34">
         <f>data_export!F10</f>
-        <v>-287.55194091796875</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" s="6" customFormat="true" ht="10.25" customHeight="true" thickBot="true" x14ac:dyDescent="0.5">
+        <v>-448.350830078125</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" s="6" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" s="6" customFormat="true" ht="22.5" thickTop="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:15" s="6" customFormat="1" ht="22.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1083,119 +1098,119 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="36" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="37" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="39" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="40" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="41" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="42" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
+    <row r="43" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="11"/>
@@ -1206,13 +1221,13 @@
   <mergeCells count="1">
     <mergeCell ref="J8:M8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.01" bottom="0.01" header="0" footer="0"/>
+  <pageSetup scale="25" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1220,26 +1235,26 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="12.33203125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="17.19921875" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="13.796875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="18.53125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="19.46484375" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="26.1328125" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="19.1328125" customWidth="true"/>
-    <col min="10" max="10" width="22.796875" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="19.1328125" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="11.46484375" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="14.46484375" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="12.1328125" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="10.1328125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1247,19 +1262,19 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1294,7 @@
         <v>-5.7363877296447754</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>-13.639273643493652</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1334,7 @@
         <v>260.431396484375</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1339,12 +1354,12 @@
         <v>348.58013916015625</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.0474462509155274</v>
+        <v>1.0474462509155273</v>
       </c>
       <c r="C6">
         <v>147.72091674804688</v>
@@ -1359,7 +1374,7 @@
         <v>585.924072265625</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>2941.6787109375</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>596.43206787109375</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>108.73745727539063</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>-448.350830078125</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>26.730745315551758</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>202.10145568847656</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>1494.4154052734375</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1519,12 +1534,12 @@
         <v>348.58013916015625</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>1.0474462509155274</v>
+        <v>1.0474462509155273</v>
       </c>
       <c r="C15">
         <v>147.72091674804688</v>
@@ -1539,7 +1554,7 @@
         <v>585.924072265625</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>3063.4033203125</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>596.43206787109375</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>108.73745727539063</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1635,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O100">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O100">
     <sortCondition ref="I2:I100"/>
     <sortCondition ref="J2:J100"/>
     <sortCondition ref="K2:K100"/>

--- a/data/6_tables/tables_appendix/Table9_CE_Table_DWL_193.xlsx
+++ b/data/6_tables/tables_appendix/Table9_CE_Table_DWL_193.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethuo\Documents\GitHub\mvpf-climate\data\6_tables\tables_appendix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acreeron\Dropbox (MIT)\Regulation\Paper\Figures July 1\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3A2D22-9C97-4F63-9DDA-9D230EF88DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBAE2C-1E42-430F-B5F6-DC114090EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6697" yWindow="-16297" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="4" r:id="rId1"/>
     <sheet name="data_export" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="67" uniqueCount="26">
   <si>
     <t>MVPF</t>
   </si>
@@ -88,6 +88,21 @@
     <t>Opower Elec. (166 RCTs)</t>
   </si>
   <si>
+    <t>Net Social Cost Per Ton</t>
+  </si>
+  <si>
+    <t>10% DWL</t>
+  </si>
+  <si>
+    <t>30% DWL</t>
+  </si>
+  <si>
+    <t>50% DWL</t>
+  </si>
+  <si>
+    <t>0% DWL</t>
+  </si>
+  <si>
     <t>DWL_0_table</t>
   </si>
   <si>
@@ -98,39 +113,16 @@
   </si>
   <si>
     <t>DWL_50_table</t>
-  </si>
-  <si>
-    <r>
-      <t>Welfare Cost of Raising Revenue (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="LM Roman 10"/>
-      </rPr>
-      <t>ϕ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="LM Roman 10"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +193,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -209,7 +201,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -218,7 +210,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -228,7 +220,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -236,129 +228,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +485,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -520,9 +509,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -546,7 +535,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -581,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -599,7 +588,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -624,7 +613,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -640,72 +629,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BF7382-BA68-4FFF-972D-6F46E493258F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BF7382-BA68-4FFF-972D-6F46E493258F}">
   <dimension ref="F1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="true" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="9.1328125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="5"/>
-    <col min="5" max="5" width="9.109375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="1.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="61.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="18" customWidth="1"/>
-    <col min="11" max="13" width="28.77734375" style="13" customWidth="1"/>
-    <col min="14" max="15" width="1.44140625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="4" width="9.1328125" style="5"/>
+    <col min="5" max="5" width="9.1328125" style="5" customWidth="true"/>
+    <col min="6" max="7" width="1.46484375" style="5" customWidth="true"/>
+    <col min="8" max="8" width="60.265625" style="5" customWidth="true"/>
+    <col min="9" max="10" width="28.796875" style="18" customWidth="true"/>
+    <col min="11" max="13" width="28.796875" style="13" customWidth="true"/>
+    <col min="14" max="15" width="1.46484375" style="5" customWidth="true"/>
+    <col min="16" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="1" customFormat="true" x14ac:dyDescent="0.45">
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="1" customFormat="true" x14ac:dyDescent="0.45">
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="1" customFormat="true" x14ac:dyDescent="0.45">
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="1" customFormat="true" x14ac:dyDescent="0.45">
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="6:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="1" customFormat="true" x14ac:dyDescent="0.45">
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="6:31" s="1" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="1" customFormat="true" ht="19.15" thickBot="true" x14ac:dyDescent="0.5">
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="6:31" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="1" customFormat="true" ht="10.25" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -717,61 +702,61 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="6:31" s="21" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="22" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="J8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="6:31" s="21" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="22" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="22" customFormat="true" ht="29.45" customHeight="true" thickBot="true" x14ac:dyDescent="0.5">
+      <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="M9" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-    </row>
-    <row r="10" spans="6:31" s="8" customFormat="1" ht="10.199999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="8" customFormat="true" ht="10.25" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -783,310 +768,310 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="6:31" s="31" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="26"/>
-      <c r="G11" s="27" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="32" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
+      <c r="F11" s="27"/>
+      <c r="G11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="F12" s="26"/>
-      <c r="H12" s="32" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="F12" s="27"/>
+      <c r="H12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <f>data_export!B2</f>
-        <v>5.8698348999023438</v>
-      </c>
-      <c r="J12" s="34">
+        <v>6.2399425506591797</v>
+      </c>
+      <c r="J12" s="35">
         <f>data_export!C2</f>
-        <v>-32.326091766357422</v>
-      </c>
-      <c r="K12" s="34">
+        <v>-34.183383941650391</v>
+      </c>
+      <c r="K12" s="35">
         <f>data_export!D2</f>
-        <v>-23.589645385742188</v>
-      </c>
-      <c r="L12" s="34">
+        <v>-25.279609680175781</v>
+      </c>
+      <c r="L12" s="35">
         <f>data_export!E2</f>
-        <v>-14.663016319274902</v>
-      </c>
-      <c r="M12" s="34">
+        <v>-19.016796112060547</v>
+      </c>
+      <c r="M12" s="35">
         <f>data_export!F2</f>
-        <v>-5.7363877296447754</v>
-      </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="F13" s="26"/>
-      <c r="H13" s="32" t="s">
+        <v>-12.753981590270996</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="F13" s="27"/>
+      <c r="H13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f>data_export!B3</f>
-        <v>3.8616542816162109</v>
-      </c>
-      <c r="J13" s="34">
+        <v>3.86165452003479</v>
+      </c>
+      <c r="J13" s="35">
         <f>data_export!C3</f>
         <v>-66.884750366210938</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="35">
         <f>data_export!D3</f>
-        <v>-48.012187957763672</v>
-      </c>
-      <c r="L13" s="34">
+        <v>-46.815547943115234</v>
+      </c>
+      <c r="L13" s="35">
         <f>data_export!E3</f>
-        <v>-30.82573127746582</v>
-      </c>
-      <c r="M13" s="34">
+        <v>-34.90020751953125</v>
+      </c>
+      <c r="M13" s="35">
         <f>data_export!F3</f>
-        <v>-13.639273643493652</v>
-      </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="F14" s="26"/>
-      <c r="H14" s="32" t="s">
+        <v>-22.984867095947266</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="F14" s="27"/>
+      <c r="H14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="34">
         <f>data_export!B4</f>
-        <v>1.445249080657959</v>
-      </c>
-      <c r="J14" s="34">
+        <v>1.4507421255111694</v>
+      </c>
+      <c r="J14" s="35">
         <f>data_export!C4</f>
-        <v>-414.67373657226563</v>
-      </c>
-      <c r="K14" s="34">
+        <v>-411.47763061523438</v>
+      </c>
+      <c r="K14" s="35">
         <f>data_export!D4</f>
-        <v>-259.21841430664063</v>
-      </c>
-      <c r="L14" s="34">
+        <v>-271.47824096679688</v>
+      </c>
+      <c r="L14" s="35">
         <f>data_export!E4</f>
-        <v>0.60649693012237549</v>
-      </c>
-      <c r="M14" s="34">
+        <v>-74.567390441894531</v>
+      </c>
+      <c r="M14" s="35">
         <f>data_export!F4</f>
-        <v>260.431396484375</v>
-      </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-    </row>
-    <row r="15" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="F15" s="26"/>
-      <c r="H15" s="32" t="s">
+        <v>122.34345245361328</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="F15" s="27"/>
+      <c r="H15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <f>data_export!B5</f>
-        <v>1.1642497777938843</v>
-      </c>
-      <c r="J15" s="34">
+        <v>1.1749320030212402</v>
+      </c>
+      <c r="J15" s="35">
         <f>data_export!C5</f>
-        <v>111.38442230224609</v>
-      </c>
-      <c r="K15" s="34">
+        <v>107.07133483886719</v>
+      </c>
+      <c r="K15" s="35">
         <f>data_export!D5</f>
-        <v>158.82356262207031</v>
-      </c>
-      <c r="L15" s="34">
+        <v>57.053604125976563</v>
+      </c>
+      <c r="L15" s="35">
         <f>data_export!E5</f>
-        <v>253.70185852050781</v>
-      </c>
-      <c r="M15" s="34">
+        <v>143.74446105957031</v>
+      </c>
+      <c r="M15" s="35">
         <f>data_export!F5</f>
-        <v>348.58013916015625</v>
-      </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="6:31" s="31" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="F16" s="26"/>
-      <c r="H16" s="32" t="s">
+        <v>230.43533325195313</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" s="32" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="F16" s="27"/>
+      <c r="H16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="34">
         <f>data_export!B6</f>
-        <v>1.0474462509155273</v>
-      </c>
-      <c r="J16" s="34">
+        <v>1.056435227394104</v>
+      </c>
+      <c r="J16" s="35">
         <f>data_export!C6</f>
-        <v>147.72091674804688</v>
-      </c>
-      <c r="K16" s="34">
+        <v>82.143035888671875</v>
+      </c>
+      <c r="K16" s="35">
         <f>data_export!D6</f>
-        <v>235.36155700683594</v>
-      </c>
-      <c r="L16" s="34">
+        <v>97.191024780273438</v>
+      </c>
+      <c r="L16" s="35">
         <f>data_export!E6</f>
-        <v>410.642822265625</v>
-      </c>
-      <c r="M16" s="34">
+        <v>191.82199096679688</v>
+      </c>
+      <c r="M16" s="35">
         <f>data_export!F6</f>
-        <v>585.924072265625</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="H17" s="32" t="s">
+        <v>286.45297241210938</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="H17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f>data_export!B7</f>
-        <v>1.0123741626739502</v>
-      </c>
-      <c r="J17" s="34">
+        <v>1.0128928422927856</v>
+      </c>
+      <c r="J17" s="35">
         <f>data_export!C7</f>
-        <v>-38.354965209960938</v>
-      </c>
-      <c r="K17" s="34">
+        <v>-37.772529602050781</v>
+      </c>
+      <c r="K17" s="35">
         <f>data_export!D7</f>
-        <v>555.3824462890625</v>
-      </c>
-      <c r="L17" s="34">
+        <v>222.68040466308594</v>
+      </c>
+      <c r="L17" s="35">
         <f>data_export!E7</f>
-        <v>1748.530517578125</v>
-      </c>
-      <c r="M17" s="34">
+        <v>749.6441650390625</v>
+      </c>
+      <c r="M17" s="35">
         <f>data_export!F7</f>
-        <v>2941.6787109375</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="H18" s="32" t="s">
+        <v>1276.60791015625</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="H18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="34">
         <f>data_export!B8</f>
-        <v>0.97763127088546753</v>
-      </c>
-      <c r="J18" s="34">
+        <v>0.98700541257858276</v>
+      </c>
+      <c r="J18" s="35">
         <f>data_export!C8</f>
-        <v>206.73704528808594</v>
-      </c>
-      <c r="K18" s="34">
+        <v>198.46125793457031</v>
+      </c>
+      <c r="K18" s="35">
         <f>data_export!D8</f>
-        <v>284.67605590820313</v>
-      </c>
-      <c r="L18" s="34">
+        <v>144.64460754394531</v>
+      </c>
+      <c r="L18" s="35">
         <f>data_export!E8</f>
-        <v>440.55404663085938</v>
-      </c>
-      <c r="M18" s="34">
+        <v>225.73226928710938</v>
+      </c>
+      <c r="M18" s="35">
         <f>data_export!F8</f>
-        <v>596.43206787109375</v>
-      </c>
-    </row>
-    <row r="19" spans="6:15" s="21" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>306.81991577148438</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" s="22" customFormat="true" ht="10.25" customHeight="true" x14ac:dyDescent="0.45">
       <c r="I19" s="20"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="6:15" s="31" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="26"/>
-      <c r="G20" s="27" t="s">
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" s="32" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="26"/>
-    </row>
-    <row r="21" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="H21" s="32" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="H21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <f>data_export!B9</f>
         <v>2.547694206237793</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="35">
         <f>data_export!C9</f>
         <v>70.288436889648438</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="35">
         <f>data_export!D9</f>
         <v>77.978240966796875</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="35">
         <f>data_export!E9</f>
         <v>93.35784912109375</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="35">
         <f>data_export!F9</f>
         <v>108.73745727539063</v>
       </c>
     </row>
-    <row r="22" spans="6:15" s="21" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" s="22" customFormat="true" ht="10.25" customHeight="true" x14ac:dyDescent="0.45">
       <c r="I22" s="20"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="6:15" s="31" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="26"/>
-      <c r="G23" s="27" t="s">
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" s="32" customFormat="true" ht="31.5" thickBot="true" x14ac:dyDescent="0.5">
+      <c r="F23" s="27"/>
+      <c r="G23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="6:15" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="H24" s="32" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" s="20" customFormat="true" ht="31.15" x14ac:dyDescent="0.45">
+      <c r="H24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="34">
         <f>data_export!B10</f>
-        <v>0.6714891791343689</v>
-      </c>
-      <c r="J24" s="34">
+        <v>0.66175150871276855</v>
+      </c>
+      <c r="J24" s="35">
         <f>data_export!C10</f>
-        <v>-63.599552154541016</v>
-      </c>
-      <c r="K24" s="34">
+        <v>-64.070701599121094</v>
+      </c>
+      <c r="K24" s="35">
         <f>data_export!D10</f>
-        <v>-140.49539184570313</v>
-      </c>
-      <c r="L24" s="34">
+        <v>-108.24491882324219</v>
+      </c>
+      <c r="L24" s="35">
         <f>data_export!E10</f>
-        <v>-294.42312622070313</v>
-      </c>
-      <c r="M24" s="34">
+        <v>-197.89842224121094</v>
+      </c>
+      <c r="M24" s="35">
         <f>data_export!F10</f>
-        <v>-448.350830078125</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15" s="6" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-287.55194091796875</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" s="6" customFormat="true" ht="10.25" customHeight="true" thickBot="true" x14ac:dyDescent="0.5">
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="6:15" s="6" customFormat="1" ht="22.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" s="6" customFormat="true" ht="22.5" thickTop="true" x14ac:dyDescent="0.45">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1098,119 +1083,119 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="6:15" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="9:13" s="6" customFormat="1" ht="22.2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" s="6" customFormat="true" ht="22.15" x14ac:dyDescent="0.45">
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="11"/>
@@ -1221,13 +1206,13 @@
   <mergeCells count="1">
     <mergeCell ref="J8:M8"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.01" bottom="0.01" header="0" footer="0"/>
-  <pageSetup scale="25" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1235,26 +1220,26 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.9296875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12.33203125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="17.19921875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.796875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="18.53125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="19.46484375" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="26.1328125" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="19.1328125" customWidth="true"/>
+    <col min="10" max="10" width="22.796875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="19.1328125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11.46484375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.46484375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="12.1328125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="10.1328125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1262,19 +1247,19 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1279,7 @@
         <v>-5.7363877296447754</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1299,7 @@
         <v>-13.639273643493652</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1322,19 +1307,19 @@
         <v>1.445249080657959</v>
       </c>
       <c r="C4">
-        <v>-414.67373657226563</v>
+        <v>-414.6737060546875</v>
       </c>
       <c r="D4">
         <v>-259.21841430664063</v>
       </c>
       <c r="E4">
-        <v>0.60649693012237549</v>
+        <v>0.60649687051773071</v>
       </c>
       <c r="F4">
         <v>260.431396484375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1354,12 +1339,12 @@
         <v>348.58013916015625</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.0474462509155273</v>
+        <v>1.0474462509155274</v>
       </c>
       <c r="C6">
         <v>147.72091674804688</v>
@@ -1374,27 +1359,27 @@
         <v>585.924072265625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0123741626739502</v>
+        <v>1.012169361114502</v>
       </c>
       <c r="C7">
-        <v>-38.354965209960938</v>
+        <v>-37.713172912597656</v>
       </c>
       <c r="D7">
-        <v>555.3824462890625</v>
+        <v>560.74200439453125</v>
       </c>
       <c r="E7">
-        <v>1748.530517578125</v>
+        <v>1763.2154541015625</v>
       </c>
       <c r="F7">
-        <v>2941.6787109375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2965.68896484375</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1399,7 @@
         <v>596.43206787109375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1419,7 @@
         <v>108.73745727539063</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1439,7 @@
         <v>-448.350830078125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1459,7 @@
         <v>26.730745315551758</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1479,7 @@
         <v>202.10145568847656</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1499,7 @@
         <v>1494.4154052734375</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1534,12 +1519,12 @@
         <v>348.58013916015625</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>1.0474462509155273</v>
+        <v>1.0474462509155274</v>
       </c>
       <c r="C15">
         <v>147.72091674804688</v>
@@ -1554,27 +1539,27 @@
         <v>585.924072265625</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.99798816442489624</v>
+        <v>0.99801546335220337</v>
       </c>
       <c r="C16">
-        <v>42.8043212890625</v>
+        <v>42.803764343261719</v>
       </c>
       <c r="D16">
-        <v>646.924072265625</v>
+        <v>651.5289306640625</v>
       </c>
       <c r="E16">
-        <v>1855.1636962890625</v>
+        <v>1868.9791259765625</v>
       </c>
       <c r="F16">
-        <v>3063.4033203125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3086.429443359375</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1579,7 @@
         <v>596.43206787109375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1599,7 @@
         <v>108.73745727539063</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1620,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O100">
+  <sortState ref="A2:O100">
     <sortCondition ref="I2:I100"/>
     <sortCondition ref="J2:J100"/>
     <sortCondition ref="K2:K100"/>
